--- a/data/SL_SEM_index_drop_criteria.xlsx
+++ b/data/SL_SEM_index_drop_criteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztinasara\github\lendulet_language_SL\reliability_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisztinasara\github\SL-and-IDs-in-language-2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7CFB48-A226-4502-8356-E2A16F0623D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082FEBC2-EA57-49E4-AC8A-226415461706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E1E9E842-800C-4D87-8468-3F2F5CD6E35C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="63">
   <si>
     <t>group</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>0. all</t>
+  </si>
+  <si>
+    <t>*split-half reliabilities were calculated with 1000 iterations and Spearman-Brown correction (r full = (2 * r half) / (1 + r half))</t>
   </si>
 </sst>
 </file>
@@ -2102,25 +2105,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G47">
-        <f>SUM(G2:G46)</f>
-        <v>45</v>
-      </c>
-      <c r="H47">
-        <f>SUM(H2:H46)</f>
-        <v>32</v>
-      </c>
-      <c r="I47">
-        <f t="shared" ref="I47:K47" si="0">SUM(I2:I46)</f>
-        <v>25</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="A47" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
